--- a/medicine/Enfance/Au_rendez-vous_des_revenants/Au_rendez-vous_des_revenants.xlsx
+++ b/medicine/Enfance/Au_rendez-vous_des_revenants/Au_rendez-vous_des_revenants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Au rendez-vous des revenants (titre original: The Secret of Terror Castle) est le premier volume de la série policière pour adolescents Les Trois Jeunes Détectives, écrit par Robert Arthur, Jr..
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman a été édité pour la première fois aux États-Unis en 1964.
 Il est paru en France en 1966 dans la collection Idéal-Bibliothèque d'Hachette puis dans la Bibliothèque verte en 1979.
@@ -545,7 +559,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la petite ville de Rocky, à quelques kilomètres des studios d'Hollywood, le jeune Hannibal Jones commence à être connu pour son habileté à trouver la solution des énigmes les plus improbables - la dernière en date étant la disparition de la bague de fiançailles de la mère de Bob Andy, un camarade bibliophile. Mais le dernier exploit en date d'Hannibal est d'avoir gagné la location pendant trente jours d'une authentique Rolls Royce avec chauffeur en devinant le nombre exact de haricots secs contenus dans une jarre exposée dans une vitrine. Mais que compte-il en faire ?
 Bob retrouve Hannibal et Peter Crentch, le sportif de la bande, dans le repaire secret aménagé par Hannibal au fond du Paradis de la Brocante, un bric-à-brac tenu par Titus Jones, l'oncle d'Hannibal. Bob découvre ainsi les cartes de visite qu'Hannibal fait imprimer par Peter Crentch sur une petite presse artisanale - cartes qui présentent leur agence de détectives nouvellement fondée. 
@@ -580,7 +596,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hannibal Jones, doté d'une grande culture et de facultés de raisonnement remarquables. Surnommé Babal par ses amis.
 Bob Andy, petit, maigre, porte des lunettes, travaille à temps partiel à la Bibliothèque de Rocky.
@@ -621,7 +639,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1966 - Hachette, Idéal-Bibliothèque. Illustré par Jacques Poirier (Couverture et illustrations internes). Traduction de Vladimir Volkoff.
 1979 - Hachette, Bibliothèque verte. Illustré par Jacques Poirier (Couverture et illustrations internes, différentes de l'édition de 1966). Traduction de Vladimir Volkoff (quelques différences.).
